--- a/project/excel/BICAN_schema.xlsx
+++ b/project/excel/BICAN_schema.xlsx
@@ -741,11 +741,6 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation sqref="I2:I1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>""</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1042,11 +1037,6 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation sqref="D2:D1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>""</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/project/excel/BICAN_schema.xlsx
+++ b/project/excel/BICAN_schema.xlsx
@@ -12,11 +12,12 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Bican_Annotation" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AnnotationTransfer" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Review" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Labelset" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutomatedAnnotation" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Annotation" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Taxonomy" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Any" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Review" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Labelset" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutomatedAnnotation" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Annotation" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Taxonomy" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -508,6 +509,87 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:L1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>labelset</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>cell_label</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>cell_fullname</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>cell_ontology_term_id</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>cell_ontology_term</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>cell_ids</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>rationale</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>rationale_dois</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>marker_gene_evidence</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>synonyms</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>reviews</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>author_annotation_fields</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -833,42 +915,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>datestamp</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>reviewer</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>review</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>explanation</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation sqref="C2:C1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"Agree,Disagree"</formula1>
-    </dataValidation>
-  </dataValidations>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -890,29 +944,29 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>datestamp</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>reviewer</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>annotation_method</t>
+          <t>review</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>automated_annotation</t>
+          <t>explanation</t>
         </is>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation sqref="C2:C1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"algorithmic,manual,both"</formula1>
+      <formula1>"Agree,Disagree"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -936,26 +990,31 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>algorithm_name</t>
+          <t>name</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>algorithm_version</t>
+          <t>description</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>algorithm_repo_url</t>
+          <t>annotation_method</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>reference_location</t>
+          <t>automated_annotation</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="C2:C1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"algorithmic,manual,both"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -966,7 +1025,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -977,62 +1036,22 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>labelset</t>
+          <t>algorithm_name</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>cell_label</t>
+          <t>algorithm_version</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>cell_fullname</t>
+          <t>algorithm_repo_url</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>cell_ontology_term_id</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>cell_ontology_term</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>cell_ids</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>rationale</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>rationale_dois</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>marker_gene_evidence</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>synonyms</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>reviews</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>author_annotation_fields</t>
+          <t>reference_location</t>
         </is>
       </c>
     </row>
